--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="iter" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="123">
   <si>
     <t>imgs</t>
   </si>
@@ -156,21 +156,48 @@
     <t>B</t>
   </si>
   <si>
-    <t>baseline-obj1</t>
-  </si>
-  <si>
-    <t>baseline-obj1/nms</t>
+    <t>Featurized Query R-CNN（无nms）</t>
+  </si>
+  <si>
+    <t>Featurized Query R-CNN（有nms）</t>
+  </si>
+  <si>
+    <t>baseline-obj1（无nms）</t>
+  </si>
+  <si>
+    <t>baseline-obj1（有nms）</t>
   </si>
   <si>
     <t>Un-Select</t>
   </si>
   <si>
+    <t>Un-Select+nms</t>
+  </si>
+  <si>
     <t>OTA</t>
   </si>
   <si>
+    <t>OTA+nms0.5</t>
+  </si>
+  <si>
+    <t>OTA-nms</t>
+  </si>
+  <si>
     <t>ROI-Attn</t>
   </si>
   <si>
+    <t>nms0.8</t>
+  </si>
+  <si>
+    <t>nms0.7</t>
+  </si>
+  <si>
+    <t>nms0.65</t>
+  </si>
+  <si>
+    <t>nms0.5</t>
+  </si>
+  <si>
     <t>说明：</t>
   </si>
   <si>
@@ -184,6 +211,9 @@
   </si>
   <si>
     <t>ROI-Attn，在 OTA 的基础上，加上 ROI-Attn 模块（最终的模型）</t>
+  </si>
+  <si>
+    <t>默认nms：0.6</t>
   </si>
   <si>
     <t>本方案亮点：</t>
@@ -1063,7 +1093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,17 +1172,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1788,7 +1821,7 @@
   <sheetPr/>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1825,25 +1858,25 @@
       </c>
     </row>
     <row r="2" spans="3:9">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2088,7 +2121,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2100,47 +2133,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:7">
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="4:7">
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="31">
         <v>3</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="32">
         <v>0.0549</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="33">
         <v>3598</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="34">
         <v>58.27</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="34">
         <v>23.37</v>
       </c>
       <c r="H3" t="s">
@@ -2148,21 +2181,21 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31">
         <v>5</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="35">
         <v>0.0582</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="36">
         <v>4375</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="37">
         <v>60.1</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="38">
         <v>23.09</v>
       </c>
       <c r="H4" t="s">
@@ -2170,21 +2203,21 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31">
         <v>7</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="32">
         <v>0.0611</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="33">
         <v>4846</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="34">
         <v>59.98</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="34">
         <v>21.82</v>
       </c>
       <c r="H5" t="s">
@@ -2192,21 +2225,21 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31">
         <v>9</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="32">
         <v>0.0632</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="33">
         <v>5098</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="34">
         <v>60.4</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="34">
         <v>20.35</v>
       </c>
       <c r="H6" t="s">
@@ -2214,25 +2247,25 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="39">
         <v>1</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="40">
         <v>0.0636</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="41">
         <v>7701</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="42">
         <v>61.14</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="42">
         <v>20.23</v>
       </c>
       <c r="H7" t="s">
@@ -2240,21 +2273,21 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="40">
         <v>0.0611</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="41">
         <v>5126</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="42">
         <v>60.29</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="42">
         <v>22.5</v>
       </c>
       <c r="H8" t="s">
@@ -2262,21 +2295,21 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39">
         <v>5</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="43">
         <v>0.0582</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="44">
         <v>4375</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="45">
         <v>60.1</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="46">
         <v>23.09</v>
       </c>
       <c r="H9" t="s">
@@ -2284,21 +2317,21 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39">
         <v>7</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="40">
         <v>0.0554</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="41">
         <v>3744</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="42">
         <v>59.81</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="42">
         <v>23.23</v>
       </c>
       <c r="H10" t="s">
@@ -2306,21 +2339,21 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39">
         <v>9</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="40">
         <v>0.0576</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="41">
         <v>3442</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="42">
         <v>58.89</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="42">
         <v>23.27</v>
       </c>
       <c r="H11" t="s">
@@ -2328,25 +2361,25 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="47">
         <v>10</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="48">
         <v>0.0586</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="49">
         <v>4316</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="50">
         <v>59.97</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="50">
         <v>22.74</v>
       </c>
       <c r="H12" t="s">
@@ -2354,21 +2387,21 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47">
         <v>20</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="51">
         <v>0.0582</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="52">
         <v>4375</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="53">
         <v>60.1</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="54">
         <v>23.09</v>
       </c>
       <c r="H13" t="s">
@@ -2376,21 +2409,21 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47">
         <v>30</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="48">
         <v>0.0592</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="49">
         <v>4291</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="50">
         <v>59.43</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="50">
         <v>23.34</v>
       </c>
       <c r="H14" t="s">
@@ -2398,21 +2431,21 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47">
         <v>40</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="48">
         <v>0.0575</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="49">
         <v>4173</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="50">
         <v>59.74</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="50">
         <v>22.74</v>
       </c>
       <c r="H15" t="s">
@@ -2420,21 +2453,21 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47">
         <v>50</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="48">
         <v>0.0583</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="49">
         <v>4291</v>
       </c>
-      <c r="F16" s="49">
+      <c r="F16" s="50">
         <v>59.65</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="50">
         <v>22.68</v>
       </c>
       <c r="H16" t="s">
@@ -2450,15 +2483,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="31.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
@@ -2580,364 +2618,990 @@
       <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="B4">
-        <v>0.0654</v>
-      </c>
-      <c r="C4">
-        <v>33240</v>
-      </c>
-      <c r="D4" s="26">
-        <v>57.7</v>
-      </c>
-      <c r="E4" s="27">
-        <v>9.69</v>
-      </c>
-      <c r="F4">
-        <v>0.0343</v>
-      </c>
-      <c r="G4">
-        <v>20066</v>
-      </c>
-      <c r="H4" s="26">
-        <v>47.47</v>
-      </c>
-      <c r="I4" s="26">
-        <v>30.65</v>
-      </c>
-      <c r="J4" s="26">
-        <v>39.06</v>
-      </c>
-      <c r="K4" s="27">
-        <v>6.75</v>
-      </c>
-      <c r="L4">
-        <v>0.0189</v>
-      </c>
-      <c r="M4">
-        <v>11525</v>
-      </c>
-      <c r="N4" s="26">
-        <v>36.47</v>
-      </c>
-      <c r="O4" s="26">
-        <v>21.16</v>
-      </c>
-      <c r="P4" s="26">
-        <v>31.37</v>
-      </c>
-      <c r="Q4" s="27">
-        <v>8.31</v>
-      </c>
-      <c r="R4" s="26">
-        <v>30.61</v>
-      </c>
-      <c r="S4" s="26">
-        <v>16.52</v>
-      </c>
-      <c r="T4" s="26">
-        <v>27.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="B4" s="26">
+        <v>0.0718</v>
+      </c>
+      <c r="C4" s="27">
+        <v>79516</v>
+      </c>
+      <c r="D4" s="1">
+        <v>57.06</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.039</v>
+      </c>
+      <c r="G4" s="27">
+        <v>40259</v>
+      </c>
+      <c r="H4" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30.73</v>
+      </c>
+      <c r="J4" s="1">
+        <v>39.01</v>
+      </c>
+      <c r="K4" s="28">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0.0197</v>
+      </c>
+      <c r="M4" s="27">
+        <v>20307</v>
+      </c>
+      <c r="N4" s="1">
+        <v>37.53</v>
+      </c>
+      <c r="O4" s="1">
+        <v>22.08</v>
+      </c>
+      <c r="P4" s="1">
+        <v>32.38</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>31.05</v>
+      </c>
+      <c r="S4" s="1">
+        <v>16.74</v>
+      </c>
+      <c r="T4" s="1">
+        <v>27.48</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" outlineLevel="1" spans="1:20">
       <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B5">
-        <v>0.0761</v>
-      </c>
-      <c r="C5">
-        <v>77927</v>
-      </c>
-      <c r="D5" s="26">
-        <v>56.42</v>
-      </c>
-      <c r="E5" s="27">
-        <v>9.99</v>
-      </c>
-      <c r="F5">
-        <v>0.0428</v>
-      </c>
-      <c r="G5">
-        <v>39682</v>
-      </c>
-      <c r="H5" s="26">
-        <v>45.94</v>
-      </c>
-      <c r="I5" s="26">
-        <v>30.03</v>
-      </c>
-      <c r="J5" s="26">
-        <v>37.99</v>
-      </c>
-      <c r="K5" s="27">
-        <v>6.94</v>
-      </c>
-      <c r="L5">
-        <v>0.0214</v>
-      </c>
-      <c r="M5">
-        <v>19824</v>
-      </c>
-      <c r="N5" s="26">
-        <v>35.21</v>
-      </c>
-      <c r="O5" s="26">
-        <v>20.64</v>
-      </c>
-      <c r="P5" s="26">
-        <v>30.35</v>
-      </c>
-      <c r="Q5" s="27">
-        <v>8.51</v>
-      </c>
-      <c r="R5" s="26">
-        <v>29.41</v>
-      </c>
-      <c r="S5" s="26">
-        <v>16.13</v>
-      </c>
-      <c r="T5" s="26">
-        <v>26.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="B5" s="26">
+        <v>0.0625</v>
+      </c>
+      <c r="C5" s="27">
+        <v>34978</v>
+      </c>
+      <c r="D5" s="1">
+        <v>58.32</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.0322</v>
+      </c>
+      <c r="G5" s="27">
+        <v>21548</v>
+      </c>
+      <c r="H5" s="1">
+        <v>48.79</v>
+      </c>
+      <c r="I5" s="1">
+        <v>31.22</v>
+      </c>
+      <c r="J5" s="1">
+        <v>40</v>
+      </c>
+      <c r="K5" s="28">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0.0178</v>
+      </c>
+      <c r="M5" s="27">
+        <v>11779</v>
+      </c>
+      <c r="N5" s="1">
+        <v>38.61</v>
+      </c>
+      <c r="O5" s="1">
+        <v>22.62</v>
+      </c>
+      <c r="P5" s="1">
+        <v>33.28</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>32.21</v>
+      </c>
+      <c r="S5" s="1">
+        <v>17.21</v>
+      </c>
+      <c r="T5" s="1">
+        <v>28.46</v>
+      </c>
+    </row>
+    <row r="6" collapsed="1" spans="1:20">
       <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6">
-        <v>0.0571</v>
-      </c>
-      <c r="C6">
-        <v>3385</v>
-      </c>
-      <c r="D6" s="26">
-        <v>55.62</v>
-      </c>
-      <c r="E6" s="27">
-        <v>25.34</v>
-      </c>
-      <c r="F6">
-        <v>0.0198</v>
-      </c>
-      <c r="G6">
-        <v>1498</v>
-      </c>
-      <c r="H6" s="26">
-        <v>45.05</v>
-      </c>
-      <c r="I6" s="26">
-        <v>29.71</v>
-      </c>
-      <c r="J6" s="26">
-        <v>37.38</v>
-      </c>
-      <c r="K6" s="27">
-        <v>19.91</v>
-      </c>
-      <c r="L6">
-        <v>0.0126</v>
-      </c>
-      <c r="M6">
-        <v>1227</v>
-      </c>
-      <c r="N6" s="26">
-        <v>36.43</v>
-      </c>
-      <c r="O6" s="26">
-        <v>20.63</v>
-      </c>
-      <c r="P6" s="26">
-        <v>31.16</v>
-      </c>
-      <c r="Q6" s="27">
-        <v>24.02</v>
-      </c>
-      <c r="R6" s="26">
-        <v>31.45</v>
-      </c>
-      <c r="S6" s="26">
-        <v>16.28</v>
-      </c>
-      <c r="T6" s="26">
-        <v>27.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="B6" s="26">
+        <v>0.0761</v>
+      </c>
+      <c r="C6" s="27">
+        <v>77927</v>
+      </c>
+      <c r="D6" s="29">
+        <v>56.42</v>
+      </c>
+      <c r="E6" s="28">
+        <v>9.99</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.0428</v>
+      </c>
+      <c r="G6" s="27">
+        <v>39682</v>
+      </c>
+      <c r="H6" s="29">
+        <v>45.94</v>
+      </c>
+      <c r="I6" s="29">
+        <v>30.03</v>
+      </c>
+      <c r="J6" s="29">
+        <v>37.99</v>
+      </c>
+      <c r="K6" s="28">
+        <v>6.94</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.0214</v>
+      </c>
+      <c r="M6" s="27">
+        <v>19824</v>
+      </c>
+      <c r="N6" s="29">
+        <v>35.21</v>
+      </c>
+      <c r="O6" s="29">
+        <v>20.64</v>
+      </c>
+      <c r="P6" s="29">
+        <v>30.35</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>8.51</v>
+      </c>
+      <c r="R6" s="29">
+        <v>29.41</v>
+      </c>
+      <c r="S6" s="29">
+        <v>16.13</v>
+      </c>
+      <c r="T6" s="29">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" outlineLevel="1" spans="1:20">
       <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B7">
-        <v>0.0597</v>
-      </c>
-      <c r="C7">
-        <v>4336</v>
-      </c>
-      <c r="D7" s="26">
-        <v>59.83</v>
-      </c>
-      <c r="E7" s="27">
-        <v>22.81</v>
-      </c>
-      <c r="F7">
-        <v>0.0248</v>
-      </c>
-      <c r="G7">
-        <v>2328</v>
-      </c>
-      <c r="H7" s="26">
-        <v>51.55</v>
-      </c>
-      <c r="I7" s="26">
-        <v>33.44</v>
-      </c>
-      <c r="J7" s="26">
-        <v>42.5</v>
-      </c>
-      <c r="K7" s="27">
-        <v>18.76</v>
-      </c>
-      <c r="L7">
-        <v>0.0149</v>
-      </c>
-      <c r="M7">
-        <v>1809</v>
-      </c>
-      <c r="N7" s="26">
-        <v>40.81</v>
-      </c>
-      <c r="O7" s="26">
-        <v>22.93</v>
-      </c>
-      <c r="P7" s="26">
-        <v>34.85</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>21.76</v>
-      </c>
-      <c r="R7" s="26">
-        <v>34.69</v>
-      </c>
-      <c r="S7" s="26">
-        <v>19.24</v>
-      </c>
-      <c r="T7" s="26">
-        <v>30.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="B7" s="26">
+        <v>0.0654</v>
+      </c>
+      <c r="C7" s="27">
+        <v>33240</v>
+      </c>
+      <c r="D7" s="29">
+        <v>57.7</v>
+      </c>
+      <c r="E7" s="28">
+        <v>9.69</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.0343</v>
+      </c>
+      <c r="G7" s="27">
+        <v>20066</v>
+      </c>
+      <c r="H7" s="29">
+        <v>47.47</v>
+      </c>
+      <c r="I7" s="29">
+        <v>30.65</v>
+      </c>
+      <c r="J7" s="29">
+        <v>39.06</v>
+      </c>
+      <c r="K7" s="28">
+        <v>6.75</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.0189</v>
+      </c>
+      <c r="M7" s="27">
+        <v>11525</v>
+      </c>
+      <c r="N7" s="29">
+        <v>36.47</v>
+      </c>
+      <c r="O7" s="29">
+        <v>21.16</v>
+      </c>
+      <c r="P7" s="29">
+        <v>31.37</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>8.31</v>
+      </c>
+      <c r="R7" s="29">
+        <v>30.61</v>
+      </c>
+      <c r="S7" s="29">
+        <v>16.52</v>
+      </c>
+      <c r="T7" s="29">
+        <v>27.09</v>
+      </c>
+    </row>
+    <row r="8" collapsed="1" spans="1:20">
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="26">
+        <v>0.0519</v>
+      </c>
+      <c r="C8" s="27">
+        <v>4194</v>
+      </c>
+      <c r="D8" s="29">
+        <v>54.75</v>
+      </c>
+      <c r="E8" s="28">
+        <v>26.5</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.019</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1800</v>
+      </c>
+      <c r="H8" s="29">
+        <v>43.92</v>
+      </c>
+      <c r="I8" s="29">
+        <v>29.42</v>
+      </c>
+      <c r="J8" s="29">
+        <v>36.67</v>
+      </c>
+      <c r="K8" s="28">
+        <v>20.89</v>
+      </c>
+      <c r="L8" s="26">
+        <v>0.0123</v>
+      </c>
+      <c r="M8" s="27">
+        <v>1490</v>
+      </c>
+      <c r="N8" s="29">
+        <v>35.54</v>
+      </c>
+      <c r="O8" s="29">
+        <v>20.22</v>
+      </c>
+      <c r="P8" s="29">
+        <v>30.43</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>24.86</v>
+      </c>
+      <c r="R8" s="29">
+        <v>30.14</v>
+      </c>
+      <c r="S8" s="29">
+        <v>15.73</v>
+      </c>
+      <c r="T8" s="29">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="9" hidden="1" outlineLevel="1" spans="1:20">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="26">
+        <v>0.0571</v>
+      </c>
+      <c r="C9" s="27">
+        <v>3385</v>
+      </c>
+      <c r="D9" s="29">
+        <v>55.62</v>
+      </c>
+      <c r="E9" s="28">
+        <v>25.34</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.0198</v>
+      </c>
+      <c r="G9" s="27">
+        <v>1498</v>
+      </c>
+      <c r="H9" s="29">
+        <v>45.05</v>
+      </c>
+      <c r="I9" s="29">
+        <v>29.71</v>
+      </c>
+      <c r="J9" s="29">
+        <v>37.38</v>
+      </c>
+      <c r="K9" s="28">
+        <v>19.91</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0.0126</v>
+      </c>
+      <c r="M9" s="27">
+        <v>1227</v>
+      </c>
+      <c r="N9" s="29">
+        <v>36.43</v>
+      </c>
+      <c r="O9" s="29">
+        <v>20.63</v>
+      </c>
+      <c r="P9" s="29">
+        <v>31.16</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>24.02</v>
+      </c>
+      <c r="R9" s="29">
+        <v>31.45</v>
+      </c>
+      <c r="S9" s="29">
+        <v>16.28</v>
+      </c>
+      <c r="T9" s="29">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="10" collapsed="1" spans="1:20">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="26">
+        <v>0.0597</v>
+      </c>
+      <c r="C10" s="27">
+        <v>4336</v>
+      </c>
+      <c r="D10" s="29">
+        <v>59.83</v>
+      </c>
+      <c r="E10" s="28">
+        <v>22.81</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.0248</v>
+      </c>
+      <c r="G10" s="27">
+        <v>2328</v>
+      </c>
+      <c r="H10" s="29">
+        <v>51.55</v>
+      </c>
+      <c r="I10" s="29">
+        <v>33.44</v>
+      </c>
+      <c r="J10" s="29">
+        <v>42.5</v>
+      </c>
+      <c r="K10" s="28">
+        <v>18.76</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.0149</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1809</v>
+      </c>
+      <c r="N10" s="29">
+        <v>40.81</v>
+      </c>
+      <c r="O10" s="29">
+        <v>22.93</v>
+      </c>
+      <c r="P10" s="29">
+        <v>34.85</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>21.76</v>
+      </c>
+      <c r="R10" s="29">
+        <v>34.69</v>
+      </c>
+      <c r="S10" s="29">
+        <v>19.24</v>
+      </c>
+      <c r="T10" s="29">
+        <v>30.83</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" outlineLevel="1" spans="1:20">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="26">
+        <v>0.0616</v>
+      </c>
+      <c r="C11" s="27">
+        <v>4125</v>
+      </c>
+      <c r="D11" s="29">
+        <v>59.67</v>
+      </c>
+      <c r="E11" s="28">
+        <v>21.74</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.0254</v>
+      </c>
+      <c r="G11" s="27">
+        <v>2250</v>
+      </c>
+      <c r="H11" s="29">
+        <v>51.53</v>
+      </c>
+      <c r="I11" s="29">
+        <v>33.32</v>
+      </c>
+      <c r="J11" s="29">
+        <v>42.43</v>
+      </c>
+      <c r="K11" s="28">
+        <v>17.89</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0.0151</v>
+      </c>
+      <c r="M11" s="27">
+        <v>1724</v>
+      </c>
+      <c r="N11" s="29">
+        <v>40.83</v>
+      </c>
+      <c r="O11" s="29">
+        <v>22.9</v>
+      </c>
+      <c r="P11" s="29">
+        <v>34.85</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>21.02</v>
+      </c>
+      <c r="R11" s="29">
+        <v>34.77</v>
+      </c>
+      <c r="S11" s="29">
+        <v>19.28</v>
+      </c>
+      <c r="T11" s="29">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" outlineLevel="1" spans="1:20">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="26">
+        <v>0.0511</v>
+      </c>
+      <c r="C12" s="27">
+        <v>13330</v>
+      </c>
+      <c r="D12" s="29">
+        <v>29.1</v>
+      </c>
+      <c r="E12" s="28">
+        <v>24.03</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.0216</v>
+      </c>
+      <c r="G12" s="27">
+        <v>5820</v>
+      </c>
+      <c r="H12" s="29">
+        <v>25.05</v>
+      </c>
+      <c r="I12" s="29">
+        <v>17.04</v>
+      </c>
+      <c r="J12" s="29">
+        <v>21.04</v>
+      </c>
+      <c r="K12" s="28">
+        <v>19.71</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0.0135</v>
+      </c>
+      <c r="M12" s="27">
+        <v>4352</v>
+      </c>
+      <c r="N12" s="29">
+        <v>19.37</v>
+      </c>
+      <c r="O12" s="29">
+        <v>11.47</v>
+      </c>
+      <c r="P12" s="29">
+        <v>16.74</v>
+      </c>
+      <c r="Q12" s="28">
+        <v>22.64</v>
+      </c>
+      <c r="R12" s="29">
+        <v>17.33</v>
+      </c>
+      <c r="S12" s="29">
+        <v>9.6</v>
+      </c>
+      <c r="T12" s="29">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="13" collapsed="1" spans="1:20">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="26">
         <v>0.0582</v>
       </c>
-      <c r="C8">
+      <c r="C13" s="27">
         <v>4375</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D13" s="29">
         <v>60.1</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E13" s="28">
         <v>23.09</v>
       </c>
-      <c r="F8">
+      <c r="F13" s="26">
         <v>0.0242</v>
       </c>
-      <c r="G8">
+      <c r="G13" s="27">
         <v>2329</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H13" s="29">
         <v>51.66</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I13" s="29">
         <v>34.06</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J13" s="29">
         <v>42.86</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K13" s="28">
         <v>18.54</v>
       </c>
-      <c r="L8">
+      <c r="L13" s="26">
         <v>0.0156</v>
       </c>
-      <c r="M8">
+      <c r="M13" s="27">
         <v>1886</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N13" s="29">
         <v>40.55</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O13" s="29">
         <v>23.13</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P13" s="29">
         <v>34.75</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q13" s="28">
         <v>21.84</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R13" s="29">
         <v>34.61</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S13" s="29">
         <v>19.4</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T13" s="29">
         <v>30.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="20" t="s">
+    <row r="14" hidden="1" outlineLevel="1" spans="1:20">
+      <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B14" s="26">
+        <v>0.0538</v>
+      </c>
+      <c r="C14" s="27">
+        <v>4922</v>
+      </c>
+      <c r="D14" s="29">
+        <v>59.67</v>
+      </c>
+      <c r="E14" s="28">
+        <v>23.97</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.0233</v>
+      </c>
+      <c r="G14" s="27">
+        <v>2622</v>
+      </c>
+      <c r="H14" s="29">
+        <v>50.86</v>
+      </c>
+      <c r="I14" s="29">
+        <v>33.79</v>
+      </c>
+      <c r="J14" s="29">
+        <v>42.32</v>
+      </c>
+      <c r="K14" s="28">
+        <v>19.31</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0.0149</v>
+      </c>
+      <c r="M14" s="27">
+        <v>2128</v>
+      </c>
+      <c r="N14" s="29">
+        <v>39.96</v>
+      </c>
+      <c r="O14" s="29">
+        <v>22.8</v>
+      </c>
+      <c r="P14" s="29">
+        <v>34.24</v>
+      </c>
+      <c r="Q14" s="28">
+        <v>22.46</v>
+      </c>
+      <c r="R14" s="29">
+        <v>33.81</v>
+      </c>
+      <c r="S14" s="29">
+        <v>18.96</v>
+      </c>
+      <c r="T14" s="29">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" outlineLevel="1" spans="1:20">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="B15" s="26">
+        <v>0.056</v>
+      </c>
+      <c r="C15" s="27">
+        <v>4596</v>
+      </c>
+      <c r="D15" s="29">
+        <v>59.97</v>
+      </c>
+      <c r="E15" s="28">
+        <v>23.63</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.0238</v>
+      </c>
+      <c r="G15" s="27">
+        <v>2449</v>
+      </c>
+      <c r="H15" s="29">
+        <v>51.39</v>
+      </c>
+      <c r="I15" s="29">
+        <v>33.96</v>
+      </c>
+      <c r="J15" s="29">
+        <v>42.68</v>
+      </c>
+      <c r="K15" s="28">
+        <v>19</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0.0153</v>
+      </c>
+      <c r="M15" s="27">
+        <v>1991</v>
+      </c>
+      <c r="N15" s="29">
+        <v>40.41</v>
+      </c>
+      <c r="O15" s="29">
+        <v>23.06</v>
+      </c>
+      <c r="P15" s="29">
+        <v>34.62</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>22.17</v>
+      </c>
+      <c r="R15" s="29">
+        <v>34.36</v>
+      </c>
+      <c r="S15" s="29">
+        <v>19.24</v>
+      </c>
+      <c r="T15" s="29">
+        <v>30.58</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" outlineLevel="1" spans="1:20">
+      <c r="A16" t="s">
         <v>56</v>
       </c>
+      <c r="B16" s="26">
+        <v>0.057</v>
+      </c>
+      <c r="C16" s="27">
+        <v>4475</v>
+      </c>
+      <c r="D16" s="29">
+        <v>60.06</v>
+      </c>
+      <c r="E16" s="28">
+        <v>23.37</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.0241</v>
+      </c>
+      <c r="G16" s="27">
+        <v>2398</v>
+      </c>
+      <c r="H16" s="29">
+        <v>51.53</v>
+      </c>
+      <c r="I16" s="29">
+        <v>34.08</v>
+      </c>
+      <c r="J16" s="29">
+        <v>42.8</v>
+      </c>
+      <c r="K16" s="28">
+        <v>18.76</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.0155</v>
+      </c>
+      <c r="M16" s="27">
+        <v>1938</v>
+      </c>
+      <c r="N16" s="29">
+        <v>40.53</v>
+      </c>
+      <c r="O16" s="29">
+        <v>23.08</v>
+      </c>
+      <c r="P16" s="29">
+        <v>34.71</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>22.04</v>
+      </c>
+      <c r="R16" s="29">
+        <v>34.49</v>
+      </c>
+      <c r="S16" s="29">
+        <v>19.34</v>
+      </c>
+      <c r="T16" s="29">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" outlineLevel="1" spans="1:20">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="26">
+        <v>0.0597</v>
+      </c>
+      <c r="C17" s="27">
+        <v>4178</v>
+      </c>
+      <c r="D17" s="29">
+        <v>59.94</v>
+      </c>
+      <c r="E17" s="28">
+        <v>22.16</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.0246</v>
+      </c>
+      <c r="G17" s="27">
+        <v>2238</v>
+      </c>
+      <c r="H17" s="29">
+        <v>51.68</v>
+      </c>
+      <c r="I17" s="29">
+        <v>34.01</v>
+      </c>
+      <c r="J17" s="29">
+        <v>42.84</v>
+      </c>
+      <c r="K17" s="28">
+        <v>17.79</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.0159</v>
+      </c>
+      <c r="M17" s="27">
+        <v>1805</v>
+      </c>
+      <c r="N17" s="29">
+        <v>40.5</v>
+      </c>
+      <c r="O17" s="29">
+        <v>23.11</v>
+      </c>
+      <c r="P17" s="29">
+        <v>34.7</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>21.14</v>
+      </c>
+      <c r="R17" s="29">
+        <v>34.6</v>
+      </c>
+      <c r="S17" s="29">
+        <v>19.43</v>
+      </c>
+      <c r="T17" s="29">
+        <v>30.81</v>
+      </c>
+    </row>
+    <row r="18" collapsed="1" spans="2:20">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+    </row>
+    <row r="19" spans="2:20">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2968,7 +3632,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9:B11"/>
+      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3102,16 +3766,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E4" s="13">
         <v>0.0621</v>
@@ -3171,17 +3835,17 @@
         <v>25.3</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11"/>
       <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E5" s="13">
         <v>0.0571</v>
@@ -3241,17 +3905,17 @@
         <v>27.8</v>
       </c>
       <c r="X5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="11"/>
       <c r="B6" s="18"/>
       <c r="C6" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E6" s="13">
         <v>0.0417</v>
@@ -3263,7 +3927,7 @@
         <v>56.2</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I6" s="13">
         <v>0.0213</v>
@@ -3281,7 +3945,7 @@
         <v>39.94</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="O6" s="13">
         <v>0.0146</v>
@@ -3299,7 +3963,7 @@
         <v>29.63</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U6" s="15">
         <v>30.11</v>
@@ -3311,17 +3975,17 @@
         <v>25.91</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="11"/>
       <c r="B7" s="18"/>
       <c r="C7" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E7" s="13">
         <v>0.0136</v>
@@ -3381,17 +4045,17 @@
         <v>23.14</v>
       </c>
       <c r="X7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="11"/>
       <c r="B8" s="18"/>
       <c r="C8" s="9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E8" s="13">
         <v>0.024</v>
@@ -3412,10 +4076,10 @@
         <v>1880</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M8" s="15">
         <v>45.3</v>
@@ -3430,10 +4094,10 @@
         <v>1452</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="S8" s="15">
         <v>39.4</v>
@@ -3442,34 +4106,34 @@
         <v>7.8</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W8" s="15">
         <v>35.4</v>
       </c>
       <c r="X8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="11"/>
       <c r="B9" s="18" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E9" s="13">
         <v>0.04493</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G9" s="15">
         <v>59.7</v>
@@ -3481,7 +4145,7 @@
         <v>0.03306</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K9" s="15">
         <v>54.11</v>
@@ -3499,7 +4163,7 @@
         <v>0.02412</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="15">
         <v>43.06</v>
@@ -3523,17 +4187,17 @@
         <v>35.66</v>
       </c>
       <c r="X9" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="11"/>
       <c r="B10" s="18"/>
       <c r="C10" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E10" s="13">
         <v>0.0549</v>
@@ -3593,17 +4257,17 @@
         <v>29</v>
       </c>
       <c r="X10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="11"/>
       <c r="B11" s="18"/>
       <c r="C11" s="9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E11" s="13">
         <v>0.0581</v>
@@ -3663,25 +4327,25 @@
         <v>30.6</v>
       </c>
       <c r="X11" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="11"/>
       <c r="B12" s="9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G12" s="15">
         <v>56.8</v>
@@ -3690,10 +4354,10 @@
         <v>39</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K12" s="15">
         <v>52.3</v>
@@ -3708,10 +4372,10 @@
         <v>36.7</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="15">
         <v>36.9</v>
@@ -3735,25 +4399,25 @@
         <v>26.9</v>
       </c>
       <c r="X12" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="11"/>
       <c r="B13" s="9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G13" s="15">
         <v>59.4</v>
@@ -3762,10 +4426,10 @@
         <v>23.5</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K13" s="15">
         <v>51.4</v>
@@ -3780,10 +4444,10 @@
         <v>20.6</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="15">
         <v>42.9</v>
@@ -3807,19 +4471,19 @@
         <v>33.6</v>
       </c>
       <c r="X13" s="25" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E14" s="13">
         <v>0.0423</v>
@@ -3879,23 +4543,23 @@
         <v>26.67</v>
       </c>
       <c r="X14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="11"/>
       <c r="B15" s="18"/>
       <c r="C15" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E15" s="13">
         <v>0.04808</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G15" s="15">
         <v>56.37</v>
@@ -3907,7 +4571,7 @@
         <v>0.01602</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K15" s="15">
         <v>51.57</v>
@@ -3925,7 +4589,7 @@
         <v>0.01374</v>
       </c>
       <c r="P15" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="15">
         <v>37.24</v>
@@ -3949,17 +4613,17 @@
         <v>25.82</v>
       </c>
       <c r="X15" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="11"/>
       <c r="B16" s="18"/>
       <c r="C16" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E16" s="13">
         <v>0.0524</v>
@@ -4019,20 +4683,20 @@
         <v>37.4</v>
       </c>
       <c r="X16" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="Y16" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" s="11"/>
       <c r="B17" s="18"/>
       <c r="C17" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E17" s="13">
         <v>0.0569</v>
@@ -4092,17 +4756,17 @@
         <v>31.5</v>
       </c>
       <c r="X17" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" s="11"/>
       <c r="B18" s="18"/>
       <c r="C18" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E18" s="13">
         <v>0.0604</v>
@@ -4162,14 +4826,14 @@
         <v>27.03</v>
       </c>
       <c r="X18" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="11"/>
       <c r="B19" s="18"/>
       <c r="C19" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="13">
@@ -4230,7 +4894,7 @@
         <v>30.6</v>
       </c>
       <c r="X19" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="5:23">
@@ -4277,10 +4941,10 @@
     </row>
     <row r="22" spans="3:23">
       <c r="C22" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E22" s="20">
         <v>0.0582</v>
@@ -4623,7 +5287,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="S22:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4756,16 +5420,16 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="11" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E4" s="13">
         <v>0.0621</v>
@@ -4825,17 +5489,17 @@
         <v>25.3</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="9" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E5" s="13">
         <v>0.0571</v>
@@ -4895,17 +5559,17 @@
         <v>27.8</v>
       </c>
       <c r="X5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E6" s="13">
         <v>0.0417</v>
@@ -4917,7 +5581,7 @@
         <v>56.2</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I6" s="13">
         <v>0.0213</v>
@@ -4935,7 +5599,7 @@
         <v>39.94</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="O6" s="13">
         <v>0.0146</v>
@@ -4953,7 +5617,7 @@
         <v>29.63</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U6" s="15">
         <v>30.11</v>
@@ -4965,17 +5629,17 @@
         <v>25.91</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E7" s="13">
         <v>0.0136</v>
@@ -5035,17 +5699,17 @@
         <v>23.14</v>
       </c>
       <c r="X7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E8" s="13">
         <v>0.024</v>
@@ -5066,10 +5730,10 @@
         <v>1880</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M8" s="15">
         <v>45.3</v>
@@ -5084,10 +5748,10 @@
         <v>1452</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="S8" s="15">
         <v>39.4</v>
@@ -5096,28 +5760,28 @@
         <v>7.8</v>
       </c>
       <c r="U8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W8" s="15">
         <v>35.4</v>
       </c>
       <c r="X8" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="11"/>
       <c r="B9" s="17" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E9" s="13">
         <v>0.0581</v>
@@ -5177,19 +5841,19 @@
         <v>30.6</v>
       </c>
       <c r="X9" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E10" s="13">
         <v>0.0423</v>
@@ -5249,23 +5913,23 @@
         <v>26.67</v>
       </c>
       <c r="X10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="11"/>
       <c r="B11" s="18"/>
       <c r="C11" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E11" s="13">
         <v>0.04808</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G11" s="15">
         <v>56.37</v>
@@ -5277,7 +5941,7 @@
         <v>0.01602</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K11" s="15">
         <v>51.57</v>
@@ -5295,7 +5959,7 @@
         <v>0.01374</v>
       </c>
       <c r="P11" s="14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="15">
         <v>37.24</v>
@@ -5319,17 +5983,17 @@
         <v>25.82</v>
       </c>
       <c r="X11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" s="11"/>
       <c r="B12" s="18"/>
       <c r="C12" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E12" s="13">
         <v>0.0569</v>
@@ -5389,17 +6053,17 @@
         <v>31.5</v>
       </c>
       <c r="X12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="11"/>
       <c r="B13" s="18"/>
       <c r="C13" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E13" s="13">
         <v>0.0604</v>
@@ -5459,14 +6123,14 @@
         <v>27.03</v>
       </c>
       <c r="X13" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="11"/>
       <c r="B14" s="18"/>
       <c r="C14" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="13">
@@ -5527,7 +6191,7 @@
         <v>30.6</v>
       </c>
       <c r="X14" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="5:23">
@@ -5679,10 +6343,10 @@
     </row>
     <row r="22" spans="3:23">
       <c r="C22" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E22" s="20">
         <v>0.0582</v>
